--- a/PDF/data/experiencia_laboral.xlsx
+++ b/PDF/data/experiencia_laboral.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDB1FC1-5E3F-41F2-9EB4-5F016EA19638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E3A4C0-FC26-4618-A4CC-22D6C9029572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,9 +147,6 @@
     <t>Pedagoga</t>
   </si>
   <si>
-    <t>Curso MinTIC por tu mujer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Creadora de la propuesta </t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>Proyecto realizado por el ICBF y Egesco</t>
+  </si>
+  <si>
+    <t>Curso MinTIC Por Ti Mujer</t>
   </si>
 </sst>
 </file>
@@ -477,19 +477,19 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="128.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="128.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -520,10 +520,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -537,20 +537,20 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -564,7 +564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -581,7 +581,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -598,7 +598,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -615,7 +615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -632,7 +632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -649,7 +649,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>

--- a/PDF/data/experiencia_laboral.xlsx
+++ b/PDF/data/experiencia_laboral.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E3A4C0-FC26-4618-A4CC-22D6C9029572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11DB383-6C40-4E84-9A53-051DAA96DBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>what</t>
   </si>
@@ -81,12 +81,6 @@
     <t xml:space="preserve">Asesora comunicaciones </t>
   </si>
   <si>
-    <t>Proyecto de Acceso a la Justicia</t>
-  </si>
-  <si>
-    <t>Programa Conjunto Ventana de Paz</t>
-  </si>
-  <si>
     <t>Cedavida</t>
   </si>
   <si>
@@ -114,57 +108,77 @@
     <t>Pasto, Colombia</t>
   </si>
   <si>
-    <t>Proyecto a favor de los Derechos Sexuales y Reproductivos, prevención de las violencias basadas en género e igualdad de género con especial énfasis en prevención de embarazo adolescente para el DPS</t>
-  </si>
-  <si>
-    <t>Oficina de Lucha Contra la Impunidad</t>
-  </si>
-  <si>
-    <t>Trabajo con medios de comunicación, realización de estrategias para acceder a derechos fundamentales</t>
-  </si>
-  <si>
     <t>Realización de la “Sala por la Memoria y la Dignidad de las Víctimas de la Fuerza Pública Colombiana”</t>
   </si>
   <si>
     <t>Comunicadora</t>
   </si>
   <si>
-    <t>Coordinadora de Comunicaciones</t>
-  </si>
-  <si>
     <t>Asesora en Comunicaciones</t>
   </si>
   <si>
     <t>Consultora en Comunicaciones</t>
   </si>
   <si>
-    <t>Consultora Experta</t>
-  </si>
-  <si>
     <t>Directora de Comunicaciones</t>
   </si>
   <si>
     <t>Pedagoga</t>
   </si>
   <si>
-    <t xml:space="preserve">Creadora de la propuesta </t>
-  </si>
-  <si>
     <t>Proyecto “Yo Cuido mi Futuro por Dos” en prevención de embarazo subsiguiente en la adolescencia</t>
   </si>
   <si>
     <t>Proyecto realizado por el ICBF y Egesco</t>
   </si>
   <si>
-    <t>Curso MinTIC Por Ti Mujer</t>
+    <t>Curso MinTIC Por Ti Mujer. Creación de contenidos y seguimiento a capacitaciones</t>
+  </si>
+  <si>
+    <t>Experta Cambio Social</t>
+  </si>
+  <si>
+    <t>Creadora de la propuesta - enfoque de derechos, género, diversidades y étnico. Capacitadora</t>
+  </si>
+  <si>
+    <t>Trabajo con adolescentes para prevención del reclutamiento infantil desde enfoques de ciclo de vida, DDHH, diversidades y género</t>
+  </si>
+  <si>
+    <t>Experta cambio social</t>
+  </si>
+  <si>
+    <t>Proyecto a favor de los Derechos Sexuales y Reproductivos, prevención de las violencias basadas en género,  prevención de embarazo adolescente para el DPS</t>
+  </si>
+  <si>
+    <t>Proyecto de Acceso a la Justicia. Trabajo de comunicaciones con enfoque de DDHH y género. Trabajo comunitario</t>
+  </si>
+  <si>
+    <t>Directora Comuniciones</t>
+  </si>
+  <si>
+    <t>Programa Conjunto Ventana de Paz. Estrategias de cambio social con campesinos, indígenas y comunidad negra en Nariño</t>
+  </si>
+  <si>
+    <t>Oficina de Lucha Contra la Impunidad. Estrategias de comunicación y pedagógicas a favor de cambio social con enfoque de DDHH y género</t>
+  </si>
+  <si>
+    <t>Trabajo con medios de comunicación, realización de estrategias para acceder a derechos fundamentales y cambio social. Enfoque de DDHH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -192,8 +206,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,7 +492,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,166 +522,178 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PDF/data/experiencia_laboral.xlsx
+++ b/PDF/data/experiencia_laboral.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t xml:space="preserve">what</t>
   </si>
@@ -37,6 +37,21 @@
     <t xml:space="preserve">why</t>
   </si>
   <si>
+    <t xml:space="preserve">Pedagoga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sep 2020 - Dic 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cedavida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bogotá, Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curso MinTIC Por Ti Mujer. Creación de contenidos y seguimiento a capacitaciones</t>
+  </si>
+  <si>
     <t xml:space="preserve">Experta Cambio Social</t>
   </si>
   <si>
@@ -44,9 +59,6 @@
   </si>
   <si>
     <t xml:space="preserve">Egesco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bogotá, Colombia</t>
   </si>
   <si>
     <t xml:space="preserve">Proyecto “Yo Cuido mi Futuro por Dos” en prevención de embarazo subsiguiente en la adolescencia</t>
@@ -223,12 +235,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -421,193 +437,209 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.890625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="66.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="128.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="66.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="128.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="1" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
